--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="0" windowWidth="22700" windowHeight="16140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,20 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
-  <si>
-    <t>#4-40 x 1.25" stainless bolts</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>McMaster</t>
   </si>
   <si>
-    <t>http://www.mcmaster.com/#92196a032/=z3uoqs</t>
-  </si>
-  <si>
-    <t>Sold in packs of 100</t>
-  </si>
-  <si>
     <t>ITEM DESCRIPTION</t>
   </si>
   <si>
@@ -75,9 +66,6 @@
     <t>http://www.digikey.com/product-search/en?keywords=ATTINY85-20PU-ND</t>
   </si>
   <si>
-    <t>Pushbuttons</t>
-  </si>
-  <si>
     <t>http://www.digikey.com/product-search/en?keywords=CKN9074-ND</t>
   </si>
   <si>
@@ -90,61 +78,73 @@
     <t>http://www.digikey.com/product-search/en?keywords=P2.2KWCT-ND</t>
   </si>
   <si>
+    <t>http://www.digikey.com/product-detail/en/PJ-002AH-SMT-TR/CP-002AHPJCT-ND/669692</t>
+  </si>
+  <si>
+    <t>White 0805 SMD LEDs</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/LTW-170TK/160-1738-1-ND/758710</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>Seeed Studio</t>
+  </si>
+  <si>
+    <t>1/8" clear acrylic sheet</t>
+  </si>
+  <si>
+    <t>http://www.mcmaster.com/#8560k257/=z3xl7j</t>
+  </si>
+  <si>
+    <t>5/16" x #4 standoffs</t>
+  </si>
+  <si>
+    <t>http://www.mcmaster.com/#92825a007/=z4xcvn</t>
+  </si>
+  <si>
+    <t>#4-40 x 1" stainless bolts</t>
+  </si>
+  <si>
+    <t>3/8" x #4 standoffs</t>
+  </si>
+  <si>
+    <t>http://www.mcmaster.com/#92949a116/=zcomli</t>
+  </si>
+  <si>
+    <t>http://www.mcmaster.com/#92825a009/=zcomqw</t>
+  </si>
+  <si>
+    <t>Comes in 12x24" sheets (@ $15.76 ea)</t>
+  </si>
+  <si>
+    <t>Bought in roll of 50 (@ $7.66 ea)</t>
+  </si>
+  <si>
+    <t>Sold in packs of 20 (@ $6.59 ea)</t>
+  </si>
+  <si>
+    <t>Sold in packs of 20 (@ $6.74 ea)</t>
+  </si>
+  <si>
+    <t>Sold in packs of 100 (@ $5.16 ea)</t>
+  </si>
+  <si>
+    <t>Pushbuttons (10mm high)</t>
+  </si>
+  <si>
     <t>DC barrel jack</t>
   </si>
   <si>
-    <t>Sparkfun</t>
-  </si>
-  <si>
-    <t>https://www.sparkfun.com/products/12748</t>
-  </si>
-  <si>
-    <t>Alt DC barrel jack</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/PJ-002AH-SMT-TR/CP-002AHPJCT-ND/669692</t>
-  </si>
-  <si>
-    <t>White 0805 SMD LEDs</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/LTW-170TK/160-1738-1-ND/758710</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>PCB</t>
-  </si>
-  <si>
-    <t>Seeed Studio</t>
-  </si>
-  <si>
-    <t>Sold in packs of 20</t>
-  </si>
-  <si>
-    <t>Comes in 12x24" sheets</t>
-  </si>
-  <si>
-    <t>1/8" clear acrylic sheet</t>
-  </si>
-  <si>
-    <t>1/8" translucent red acrylic sheet</t>
-  </si>
-  <si>
-    <t>http://www.mcmaster.com/#85635k451/=z3xkhh</t>
-  </si>
-  <si>
-    <t>http://www.mcmaster.com/#8560k257/=z3xl7j</t>
-  </si>
-  <si>
-    <t>5/16" x #4 standoffs</t>
-  </si>
-  <si>
-    <t>http://www.mcmaster.com/#92825a007/=z4xcvn</t>
-  </si>
-  <si>
-    <t>Bought in roll of 50 = $7.66</t>
+    <t>5V DC power supply</t>
+  </si>
+  <si>
+    <t>Center positive</t>
   </si>
 </sst>
 </file>
@@ -206,9 +206,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="64">
+  <cellStyleXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -281,7 +287,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="64">
+  <cellStyles count="70">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -314,6 +320,9 @@
     <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -345,6 +354,9 @@
     <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -674,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -687,64 +699,64 @@
     <col min="3" max="3" width="9.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" customWidth="1"/>
     <col min="7" max="7" width="66.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="C2" s="3">
-        <f>9.18/100</f>
-        <v>9.1799999999999993E-2</v>
+        <f>5.16/100</f>
+        <v>5.16E-2</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D14" si="0">C2*B2</f>
-        <v>0.36719999999999997</v>
+        <v>0.2064</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3">
         <f>6.74/20</f>
@@ -752,150 +764,158 @@
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>1.3480000000000001</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1</v>
+        <f>6.59/20</f>
+        <v>0.32950000000000002</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>3.98</v>
+        <v>0.1</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>3.98</v>
+        <v>0.1</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="3">
-        <v>1.67</v>
+        <v>3.98</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>1.67</v>
+        <v>3.98</v>
       </c>
       <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
         <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>0.18</v>
+        <v>1.67</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>0.72</v>
+        <v>1.67</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
         <f>7.66/50</f>
         <v>0.1532</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>0.61280000000000001</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1.5</v>
-      </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -908,15 +928,15 @@
         <v>1.89</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -929,58 +949,44 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="3">
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
         <v>5</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3">
-        <f>14.37/10</f>
-        <v>1.4369999999999998</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>2.8739999999999997</v>
-      </c>
       <c r="E13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -989,23 +995,27 @@
         <f>15.76/10</f>
         <v>1.5760000000000001</v>
       </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1520000000000001</v>
+      </c>
       <c r="E14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2">
         <f>SUM(D2:D14)</f>
-        <v>19.141999999999999</v>
+        <v>19.244200000000003</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29060" windowHeight="18300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>McMaster</t>
   </si>
@@ -66,12 +66,6 @@
     <t>http://www.digikey.com/product-search/en?keywords=ATTINY85-20PU-ND</t>
   </si>
   <si>
-    <t>http://www.digikey.com/product-search/en?keywords=CKN9074-ND</t>
-  </si>
-  <si>
-    <t>Might need taller height</t>
-  </si>
-  <si>
     <t>2.2k SMD resistors</t>
   </si>
   <si>
@@ -145,6 +139,9 @@
   </si>
   <si>
     <t>Center positive</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-search/en?keywords=450-1642-ND</t>
   </si>
 </sst>
 </file>
@@ -689,7 +686,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -728,7 +725,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -745,15 +742,15 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -770,15 +767,15 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -795,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -866,31 +863,28 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" s="3">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>0.72</v>
+        <v>0.4</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -907,15 +901,15 @@
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -931,12 +925,12 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -952,23 +946,23 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -981,12 +975,12 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1003,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="C16" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2">
         <f>SUM(D2:D14)</f>
-        <v>19.244200000000003</v>
+        <v>18.924200000000003</v>
       </c>
     </row>
   </sheetData>
